--- a/irrf.xlsx
+++ b/irrf.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="1875" windowWidth="18000" windowHeight="9270" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="IMPOSTOS SOBRE A RENDA E PROVENTOS DE QUALQUER NATUREZA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2023" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -428,24 +428,20 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="5" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="5.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Período</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Valor</t>
+          <t>Valor Receita</t>
         </is>
       </c>
     </row>
@@ -460,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,56 +479,14 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>86.407,84</t>
+          <t>146.000,00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>357.501,18</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>509.199,84</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>672.832,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>546.339,70</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>994.110,77</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>166.595,99</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>555.271,64</t>
+          <t>12.000,00</t>
         </is>
       </c>
     </row>

--- a/irrf.xlsx
+++ b/irrf.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="1875" windowWidth="18000" windowHeight="9270" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2023" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -425,27 +425,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Período</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Valor Receita</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
 </file>
@@ -456,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,26 +454,120 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Mês</t>
+          <t>Período</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Valor</t>
+          <t>Valor Receita</t>
         </is>
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>janeiro de 2023</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>146.000,00</t>
+          <t>86.407,84</t>
         </is>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>fevereiro de 2023</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12.000,00</t>
+          <t>357.501,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>março de 2023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>509.199,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>abril de 2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>672.832,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>maio de 2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>546.339,70</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>junho de 2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>994.110,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>julho de 2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166.595,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>agosto de 2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>555.271,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>setembro de 2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>475.572,04</t>
         </is>
       </c>
     </row>
